--- a/app/data/absenteeism_data_32.xlsx
+++ b/app/data/absenteeism_data_32.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27408</v>
+        <v>64959</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Almeida</t>
+          <t>Amanda Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>6841.91</v>
+        <v>2619.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83505</v>
+        <v>12679</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicole Moreira</t>
+          <t>Thales Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>10630.88</v>
+        <v>9022.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56237</v>
+        <v>77007</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danilo da Cunha</t>
+          <t>Thales Farias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>2866.51</v>
+        <v>7493.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44100</v>
+        <v>33219</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Maria Eduarda Castro</t>
+          <t>Marina Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>4995.14</v>
+        <v>10392.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11130</v>
+        <v>46484</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antônio Castro</t>
+          <t>Maria Vitória Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>9336.83</v>
+        <v>11813.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82047</v>
+        <v>65427</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Fernando Ribeiro</t>
+          <t>Dra. Ana Luiza Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>8186.43</v>
+        <v>6042.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3479</v>
+        <v>95347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Bernardo Souza</t>
+          <t>Benício Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>12329.79</v>
+        <v>7483.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27389</v>
+        <v>14431</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Manuela Barbosa</t>
+          <t>Alana Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>10068.87</v>
+        <v>11777.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49176</v>
+        <v>47822</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruno Gomes</t>
+          <t>Sr. Noah da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>5786.37</v>
+        <v>4455.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37905</v>
+        <v>58429</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília da Mata</t>
+          <t>Julia Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>9840.84</v>
+        <v>5524.46</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_32.xlsx
+++ b/app/data/absenteeism_data_32.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93127</v>
+        <v>46738</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna Freitas</t>
+          <t>Dra. Amanda da Luz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>8032.99</v>
+        <v>8866.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250</v>
+        <v>73586</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yago Fogaça</t>
+          <t>Stella Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>11757.65</v>
+        <v>11344.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67761</v>
+        <v>11836</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Farias</t>
+          <t>Dra. Alice Rezende</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>7002.73</v>
+        <v>12268.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60741</v>
+        <v>39399</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Calebe Nogueira</t>
+          <t>Dra. Clara Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,53 +584,53 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4533.57</v>
+        <v>7676.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77630</v>
+        <v>72124</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Melissa Lopes</t>
+          <t>Luna Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>12285.46</v>
+        <v>8576.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47568</v>
+        <v>20584</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Carolina Freitas</t>
+          <t>Rafael Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,82 +642,82 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>6884.09</v>
+        <v>3757.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33942</v>
+        <v>31220</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Gabriel Almeida</t>
+          <t>Caroline Nunes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>7582.23</v>
+        <v>5797.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97940</v>
+        <v>79266</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Matheus da Mota</t>
+          <t>Igor Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>8950.65</v>
+        <v>6243.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27080</v>
+        <v>60073</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Letícia Ramos</t>
+          <t>Rebeca Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>4094.86</v>
+        <v>4646.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44442</v>
+        <v>81314</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ian Rocha</t>
+          <t>Paulo da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>7845.67</v>
+        <v>7058.63</v>
       </c>
     </row>
   </sheetData>
